--- a/Sistemas/CCFN-D012-A13-R00 ORDEN DE COMPRA.xlsx
+++ b/Sistemas/CCFN-D012-A13-R00 ORDEN DE COMPRA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SISTEMAS\Documents\CLAUDIA\PROYECTOS\DOCUMENTACION\D-FORMATOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SISTEMAS\Documents\GitHub\Formatos\Sistemas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -59,9 +59,6 @@
     <t>Fecha</t>
   </si>
   <si>
-    <t>Cotizacion de ref.</t>
-  </si>
-  <si>
     <t>ORDEN DE COMPRA.</t>
   </si>
   <si>
@@ -111,6 +108,9 @@
   </si>
   <si>
     <t>PAGINA. 1</t>
+  </si>
+  <si>
+    <t>Cotizacion de referencia.</t>
   </si>
 </sst>
 </file>
@@ -415,18 +415,14 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -436,97 +432,101 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -905,7 +905,7 @@
   <dimension ref="A2:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -922,54 +922,54 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="31" t="s">
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="39"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="35"/>
+      <c r="I2" s="31"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="27"/>
-    </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="33" t="s">
+      <c r="H3" s="37"/>
+      <c r="I3" s="32"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="34"/>
-      <c r="I3" s="30"/>
-    </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="34"/>
-      <c r="I4" s="28"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="33"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="20"/>
+      <c r="B6" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="22"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
@@ -986,10 +986,10 @@
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="45"/>
+        <v>19</v>
+      </c>
+      <c r="C8" s="26"/>
+      <c r="D8" s="27"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
@@ -1004,55 +1004,55 @@
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
+      <c r="G9" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
       <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
       <c r="J10" s="6"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17" t="s">
+      <c r="C11" s="25"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
       <c r="J11" s="6"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
-      <c r="B12" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
+      <c r="B12" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="25"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
       <c r="J12" s="6"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1069,16 +1069,16 @@
     </row>
     <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
-      <c r="B14" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="20"/>
+      <c r="B14" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="22"/>
       <c r="J14" s="6"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1097,111 +1097,111 @@
       <c r="B16" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
       <c r="F16" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G16" s="29" t="s">
+      <c r="G16" s="14" t="s">
         <v>5</v>
       </c>
       <c r="H16" s="11" t="s">
         <v>6</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="46"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="49">
+      <c r="B17" s="15"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="17">
         <f>B17*H17</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="46"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="49">
+      <c r="B18" s="15"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="17">
         <f t="shared" ref="I18:I23" si="0">B18*H18</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="51"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="49">
+      <c r="B19" s="18"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="46"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="49">
+      <c r="B20" s="15"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="46"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="49">
+      <c r="B21" s="15"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="46"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="49">
+      <c r="B22" s="15"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="46"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="49">
+      <c r="B23" s="15"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1213,23 +1213,23 @@
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
+      <c r="B25" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
       <c r="H25" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I25" s="2"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="47"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="47"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
       <c r="G26" s="5"/>
       <c r="H26" s="3" t="s">
         <v>9</v>
@@ -1240,8 +1240,8 @@
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="53"/>
       <c r="D28" s="1"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
@@ -1250,65 +1250,44 @@
       <c r="D29" s="1"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
       <c r="F31" s="5"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
     </row>
     <row r="32" spans="2:9" s="8" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
+      <c r="B32" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="48"/>
+      <c r="D32" s="48"/>
       <c r="E32" s="9"/>
       <c r="F32" s="10"/>
-      <c r="G32" s="21" t="s">
+      <c r="G32" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" s="51"/>
+      <c r="I32" s="51"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="47"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
-      <c r="G33" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
+      <c r="G33" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" s="52"/>
+      <c r="I33" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="B2:C4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="D2:F4"/>
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="B31:D31"/>
@@ -1323,6 +1302,27 @@
     <mergeCell ref="C16:E16"/>
     <mergeCell ref="B25:E25"/>
     <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B2:C4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="D2:F4"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="C8:D8"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
